--- a/技术图纸/调度平台图纸/连接柱图纸/外连接柱图纸/22度外连接柱图纸/22度连接柱/11102200 22度连接柱骨架 FCC-07L-2242.xlsx
+++ b/技术图纸/调度平台图纸/连接柱图纸/外连接柱图纸/22度外连接柱图纸/22度连接柱/11102200 22度连接柱骨架 FCC-07L-2242.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="-45" windowWidth="9690" windowHeight="12240"/>
+    <workbookView xWindow="9528" yWindow="-48" windowWidth="9696" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="166">
   <si>
     <t>序号</t>
   </si>
@@ -1031,8 +1031,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.3mm冷轧板</t>
+    <t>11102200 22度连接柱骨架 FCC-07L-2242</t>
+  </si>
+  <si>
+    <t>22度连接件</t>
+  </si>
+  <si>
+    <t>DDT0722QT14</t>
+  </si>
+  <si>
+    <t>DDT0722QT14-01</t>
+  </si>
+  <si>
+    <t>DDT0722QT14-02</t>
+  </si>
+  <si>
+    <t>DDT0722QT14-03</t>
+  </si>
+  <si>
+    <t>DDT0722QT14-04</t>
+  </si>
+  <si>
+    <r>
+      <t>1.2mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷轧板</t>
     </r>
     <r>
       <rPr>
@@ -1042,59 +1072,6 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>1.4mm冷轧板</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.5mm冷轧板</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>11102200 22度连接柱骨架 FCC-07L-2242</t>
-  </si>
-  <si>
-    <t>22度连接件</t>
-  </si>
-  <si>
-    <t>DDT0722QT14</t>
-  </si>
-  <si>
-    <t>DDT0722QT14-01</t>
-  </si>
-  <si>
-    <t>DDT0722QT14-02</t>
-  </si>
-  <si>
-    <t>DDT0722QT14-03</t>
-  </si>
-  <si>
-    <t>DDT0722QT14-04</t>
-  </si>
-  <si>
-    <t>DDT0722QT14-05</t>
-  </si>
-  <si>
-    <t>根据实际加工物料图纸做了修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1079,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1223,6 +1200,12 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1399,7 +1382,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1586,6 +1569,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1595,107 +1617,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1992,40 +1960,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="4.75" customWidth="1"/>
-    <col min="3" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="1.8984375" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="10.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="C2" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
@@ -2033,20 +2001,20 @@
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="68">
         <f ca="1">TODAY()</f>
-        <v>41768</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="62" t="s">
+        <v>42128</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="69" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -2067,30 +2035,30 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
+      <c r="B6" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="28.9" customHeight="1">
+    <row r="8" spans="1:10" ht="28.95" customHeight="1">
       <c r="B8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="75"/>
+      <c r="C8" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="71"/>
       <c r="E8" s="41" t="s">
         <v>110</v>
       </c>
@@ -2111,16 +2079,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B9" s="65">
-        <v>1</v>
-      </c>
-      <c r="C9" s="77" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="78"/>
+      <c r="B9" s="61">
+        <v>1</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="74"/>
       <c r="E9" s="11"/>
       <c r="F9" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G9" s="22">
         <v>1</v>
@@ -2132,16 +2100,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B10" s="65"/>
-      <c r="C10" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="64"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="77"/>
       <c r="E10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G10" s="8">
         <v>2</v>
@@ -2153,16 +2121,16 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B11" s="65"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="77"/>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="8">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>165</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -2174,74 +2142,50 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" customHeight="1">
-      <c r="B12" s="65"/>
-      <c r="C12" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="64"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="77"/>
       <c r="E12" s="8">
         <v>3</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="15" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" customHeight="1">
-      <c r="B13" s="65"/>
-      <c r="C13" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="64"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="77"/>
       <c r="E13" s="8">
         <v>4</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G13" s="8">
         <v>2</v>
       </c>
       <c r="H13" s="56"/>
       <c r="I13" s="15" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="J13" s="52"/>
     </row>
-    <row r="14" spans="1:10" ht="45" customHeight="1">
-      <c r="B14" s="65"/>
-      <c r="C14" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="61">
-        <v>5</v>
-      </c>
-      <c r="F14" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" s="61">
-        <v>2</v>
-      </c>
-      <c r="H14" s="97"/>
-      <c r="I14" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="J14" s="95" t="s">
-        <v>169</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B9:B14"/>
+  <mergeCells count="12">
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="D3:E3"/>
@@ -2273,7 +2217,7 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="1"/>
@@ -2281,14 +2225,14 @@
       <c r="I1" s="7"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="2:10" ht="40.5">
+    <row r="2" spans="2:10" ht="43.2">
       <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="75"/>
+      <c r="C2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="71"/>
       <c r="E2" s="41" t="s">
         <v>110</v>
       </c>
@@ -2309,13 +2253,13 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="65">
-        <v>1</v>
-      </c>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="61">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="10"/>
       <c r="F3" s="20" t="s">
         <v>61</v>
@@ -2331,12 +2275,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="25.5">
-      <c r="B4" s="65"/>
-      <c r="C4" s="64" t="s">
+    <row r="4" spans="2:10" ht="26.4">
+      <c r="B4" s="61"/>
+      <c r="C4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="8">
         <v>1</v>
       </c>
@@ -2354,12 +2298,12 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="2:10" ht="25.5">
-      <c r="B5" s="65"/>
-      <c r="C5" s="64" t="s">
+    <row r="5" spans="2:10" ht="26.4">
+      <c r="B5" s="61"/>
+      <c r="C5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="64"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="8">
         <v>2</v>
       </c>
@@ -2378,13 +2322,13 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="65">
-        <v>2</v>
-      </c>
-      <c r="C6" s="78" t="s">
+      <c r="B6" s="61">
+        <v>2</v>
+      </c>
+      <c r="C6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="78"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="11"/>
       <c r="F6" s="20" t="s">
         <v>14</v>
@@ -2400,12 +2344,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="25.5">
-      <c r="B7" s="65"/>
-      <c r="C7" s="64" t="s">
+    <row r="7" spans="2:10" ht="26.4">
+      <c r="B7" s="61"/>
+      <c r="C7" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="8">
         <v>1</v>
       </c>
@@ -2423,12 +2367,12 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="2:10" ht="25.5">
-      <c r="B8" s="65"/>
-      <c r="C8" s="64" t="s">
+    <row r="8" spans="2:10" ht="26.4">
+      <c r="B8" s="61"/>
+      <c r="C8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="8">
         <v>2</v>
       </c>
@@ -2447,13 +2391,13 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="65">
+      <c r="B9" s="61">
         <v>3</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="78"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="11"/>
       <c r="F9" s="26" t="s">
         <v>64</v>
@@ -2469,12 +2413,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="25.5">
-      <c r="B10" s="65"/>
-      <c r="C10" s="64" t="s">
+    <row r="10" spans="2:10" ht="26.4">
+      <c r="B10" s="61"/>
+      <c r="C10" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="8">
         <v>1</v>
       </c>
@@ -2492,12 +2436,12 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="2:10" ht="25.5">
-      <c r="B11" s="65"/>
-      <c r="C11" s="64" t="s">
+    <row r="11" spans="2:10" ht="26.4">
+      <c r="B11" s="61"/>
+      <c r="C11" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="8">
         <v>2</v>
       </c>
@@ -2515,12 +2459,12 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="2:10" ht="25.5">
-      <c r="B12" s="65"/>
-      <c r="C12" s="64" t="s">
+    <row r="12" spans="2:10" ht="26.4">
+      <c r="B12" s="61"/>
+      <c r="C12" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="8">
         <v>3</v>
       </c>
@@ -2539,13 +2483,13 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="65">
+      <c r="B13" s="61">
         <v>4</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="78"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="11"/>
       <c r="F13" s="26" t="s">
         <v>65</v>
@@ -2561,12 +2505,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="25.5">
-      <c r="B14" s="65"/>
-      <c r="C14" s="64" t="s">
+    <row r="14" spans="2:10" ht="26.4">
+      <c r="B14" s="61"/>
+      <c r="C14" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="8">
         <v>1</v>
       </c>
@@ -2584,12 +2528,12 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:10" ht="25.5">
-      <c r="B15" s="65"/>
-      <c r="C15" s="64" t="s">
+    <row r="15" spans="2:10" ht="26.4">
+      <c r="B15" s="61"/>
+      <c r="C15" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="8">
         <v>2</v>
       </c>
@@ -2607,12 +2551,12 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="2:10" ht="25.5">
-      <c r="B16" s="65"/>
-      <c r="C16" s="64" t="s">
+    <row r="16" spans="2:10" ht="26.4">
+      <c r="B16" s="61"/>
+      <c r="C16" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="8">
         <v>3</v>
       </c>
@@ -2631,13 +2575,13 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="65">
+      <c r="B17" s="61">
         <v>5</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="11"/>
       <c r="F17" s="26" t="s">
         <v>68</v>
@@ -2653,12 +2597,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="25.5">
-      <c r="B18" s="65"/>
-      <c r="C18" s="64" t="s">
+    <row r="18" spans="2:10" ht="26.4">
+      <c r="B18" s="61"/>
+      <c r="C18" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="8">
         <v>1</v>
       </c>
@@ -2676,12 +2620,12 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" ht="25.5">
-      <c r="B19" s="65"/>
-      <c r="C19" s="64" t="s">
+    <row r="19" spans="2:10" ht="26.4">
+      <c r="B19" s="61"/>
+      <c r="C19" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="8">
         <v>2</v>
       </c>
@@ -2699,12 +2643,12 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="2:10" ht="25.5">
-      <c r="B20" s="65"/>
-      <c r="C20" s="64" t="s">
+    <row r="20" spans="2:10" ht="26.4">
+      <c r="B20" s="61"/>
+      <c r="C20" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="64"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="8">
         <v>3</v>
       </c>
@@ -2722,12 +2666,12 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="2:10" ht="25.5">
-      <c r="B21" s="65"/>
-      <c r="C21" s="64" t="s">
+    <row r="21" spans="2:10" ht="26.4">
+      <c r="B21" s="61"/>
+      <c r="C21" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="64"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="18">
         <v>4</v>
       </c>
@@ -2746,13 +2690,13 @@
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="65">
+      <c r="B22" s="61">
         <v>6</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="11"/>
       <c r="F22" s="26" t="s">
         <v>76</v>
@@ -2768,12 +2712,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="25.5">
-      <c r="B23" s="65"/>
-      <c r="C23" s="64" t="s">
+    <row r="23" spans="2:10" ht="26.4">
+      <c r="B23" s="61"/>
+      <c r="C23" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="64"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="8">
         <v>1</v>
       </c>
@@ -2791,12 +2735,12 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="2:10" ht="25.5">
-      <c r="B24" s="65"/>
-      <c r="C24" s="64" t="s">
+    <row r="24" spans="2:10" ht="26.4">
+      <c r="B24" s="61"/>
+      <c r="C24" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="8">
         <v>2</v>
       </c>
@@ -2815,13 +2759,13 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="65">
+      <c r="B25" s="61">
         <v>7</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="11"/>
       <c r="F25" s="26" t="s">
         <v>77</v>
@@ -2837,12 +2781,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="25.5">
-      <c r="B26" s="65"/>
-      <c r="C26" s="64" t="s">
+    <row r="26" spans="2:10" ht="26.4">
+      <c r="B26" s="61"/>
+      <c r="C26" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="64"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="8">
         <v>1</v>
       </c>
@@ -2860,12 +2804,12 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="2:10" ht="25.5">
-      <c r="B27" s="65"/>
-      <c r="C27" s="64" t="s">
+    <row r="27" spans="2:10" ht="26.4">
+      <c r="B27" s="61"/>
+      <c r="C27" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="8">
         <v>2</v>
       </c>
@@ -2883,12 +2827,12 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="2:10" ht="25.5">
-      <c r="B28" s="65"/>
-      <c r="C28" s="64" t="s">
+    <row r="28" spans="2:10" ht="26.4">
+      <c r="B28" s="61"/>
+      <c r="C28" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="64"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="8">
         <v>3</v>
       </c>
@@ -2906,12 +2850,12 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="2:10" ht="25.5">
-      <c r="B29" s="65"/>
-      <c r="C29" s="64" t="s">
+    <row r="29" spans="2:10" ht="26.4">
+      <c r="B29" s="61"/>
+      <c r="C29" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="64"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="18">
         <v>4</v>
       </c>
@@ -2929,12 +2873,12 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="2:10" ht="25.5">
-      <c r="B30" s="65"/>
-      <c r="C30" s="64" t="s">
+    <row r="30" spans="2:10" ht="26.4">
+      <c r="B30" s="61"/>
+      <c r="C30" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="64"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="8">
         <v>5</v>
       </c>
@@ -2952,12 +2896,12 @@
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="2:10" ht="25.5">
-      <c r="B31" s="65"/>
-      <c r="C31" s="64" t="s">
+    <row r="31" spans="2:10" ht="26.4">
+      <c r="B31" s="61"/>
+      <c r="C31" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="64"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="8">
         <v>6</v>
       </c>
@@ -2975,12 +2919,12 @@
       </c>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="2:10" ht="25.5">
-      <c r="B32" s="65"/>
-      <c r="C32" s="64" t="s">
+    <row r="32" spans="2:10" ht="26.4">
+      <c r="B32" s="61"/>
+      <c r="C32" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="64"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="18">
         <v>7</v>
       </c>
@@ -2999,13 +2943,13 @@
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="65">
+      <c r="B33" s="61">
         <v>8</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="78"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="11"/>
       <c r="F33" s="26" t="s">
         <v>84</v>
@@ -3021,12 +2965,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="25.5">
-      <c r="B34" s="65"/>
-      <c r="C34" s="64" t="s">
+    <row r="34" spans="2:10" ht="26.4">
+      <c r="B34" s="61"/>
+      <c r="C34" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="64"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="8">
         <v>1</v>
       </c>
@@ -3044,12 +2988,12 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="2:10" ht="25.5">
-      <c r="B35" s="65"/>
-      <c r="C35" s="64" t="s">
+    <row r="35" spans="2:10" ht="26.4">
+      <c r="B35" s="61"/>
+      <c r="C35" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="64"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="8">
         <v>2</v>
       </c>
@@ -3067,12 +3011,12 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="2:10" ht="25.5">
-      <c r="B36" s="65"/>
-      <c r="C36" s="64" t="s">
+    <row r="36" spans="2:10" ht="26.4">
+      <c r="B36" s="61"/>
+      <c r="C36" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="64"/>
+      <c r="D36" s="77"/>
       <c r="E36" s="8">
         <v>3</v>
       </c>
@@ -3090,12 +3034,12 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" ht="25.5">
-      <c r="B37" s="65"/>
-      <c r="C37" s="64" t="s">
+    <row r="37" spans="2:10" ht="26.4">
+      <c r="B37" s="61"/>
+      <c r="C37" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="64"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="8">
         <v>4</v>
       </c>
@@ -3113,12 +3057,12 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="2:10" ht="25.5">
-      <c r="B38" s="65"/>
-      <c r="C38" s="64" t="s">
+    <row r="38" spans="2:10" ht="26.4">
+      <c r="B38" s="61"/>
+      <c r="C38" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="64"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="18">
         <v>5</v>
       </c>
@@ -3137,13 +3081,13 @@
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="65">
+      <c r="B39" s="61">
         <v>9</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="78"/>
+      <c r="D39" s="74"/>
       <c r="E39" s="11"/>
       <c r="F39" s="20" t="s">
         <v>38</v>
@@ -3159,12 +3103,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="25.5">
-      <c r="B40" s="65"/>
-      <c r="C40" s="64" t="s">
+    <row r="40" spans="2:10" ht="26.4">
+      <c r="B40" s="61"/>
+      <c r="C40" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="64"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="8">
         <v>1</v>
       </c>
@@ -3182,12 +3126,12 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="2:10" ht="25.5">
-      <c r="B41" s="65"/>
-      <c r="C41" s="64" t="s">
+    <row r="41" spans="2:10" ht="26.4">
+      <c r="B41" s="61"/>
+      <c r="C41" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="64"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="8">
         <v>2</v>
       </c>
@@ -3205,14 +3149,14 @@
       </c>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="2:10" ht="27.75">
+    <row r="42" spans="2:10" ht="28.8">
       <c r="B42" s="8">
         <v>10</v>
       </c>
-      <c r="C42" s="91" t="s">
+      <c r="C42" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="91"/>
+      <c r="D42" s="79"/>
       <c r="E42" s="42"/>
       <c r="F42" s="43" t="s">
         <v>114</v>
@@ -3230,14 +3174,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="27.75">
+    <row r="43" spans="2:10" ht="28.8">
       <c r="B43" s="8">
         <v>11</v>
       </c>
-      <c r="C43" s="91" t="s">
+      <c r="C43" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="91"/>
+      <c r="D43" s="79"/>
       <c r="E43" s="42"/>
       <c r="F43" s="43" t="s">
         <v>117</v>
@@ -3259,10 +3203,10 @@
       <c r="B44" s="8">
         <v>12</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="78"/>
+      <c r="D44" s="74"/>
       <c r="E44" s="16"/>
       <c r="F44" s="20" t="s">
         <v>41</v>
@@ -3282,10 +3226,10 @@
       <c r="B45" s="8">
         <v>13</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="78"/>
+      <c r="D45" s="74"/>
       <c r="E45" s="16"/>
       <c r="F45" s="20" t="s">
         <v>42</v>
@@ -3302,13 +3246,13 @@
       </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="84">
+      <c r="B46" s="80">
         <v>14</v>
       </c>
-      <c r="C46" s="93" t="s">
+      <c r="C46" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="94"/>
+      <c r="D46" s="84"/>
       <c r="E46" s="11"/>
       <c r="F46" s="20" t="s">
         <v>44</v>
@@ -3324,12 +3268,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="25.5">
-      <c r="B47" s="85"/>
-      <c r="C47" s="64" t="s">
+    <row r="47" spans="2:10" ht="26.4">
+      <c r="B47" s="81"/>
+      <c r="C47" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="64"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="8">
         <v>1</v>
       </c>
@@ -3347,12 +3291,12 @@
       </c>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="2:10" ht="25.5">
-      <c r="B48" s="92"/>
-      <c r="C48" s="64" t="s">
+    <row r="48" spans="2:10" ht="26.4">
+      <c r="B48" s="82"/>
+      <c r="C48" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="64"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="8">
         <v>2</v>
       </c>
@@ -3371,13 +3315,13 @@
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="B49" s="65">
+      <c r="B49" s="61">
         <v>15</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="78"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="11"/>
       <c r="F49" s="26" t="s">
         <v>127</v>
@@ -3393,12 +3337,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="25.5">
-      <c r="B50" s="65"/>
-      <c r="C50" s="64" t="s">
+    <row r="50" spans="1:10" ht="26.4">
+      <c r="B50" s="61"/>
+      <c r="C50" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="8">
         <v>1</v>
       </c>
@@ -3416,12 +3360,12 @@
       </c>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" ht="25.5">
-      <c r="B51" s="65"/>
-      <c r="C51" s="64" t="s">
+    <row r="51" spans="1:10" ht="26.4">
+      <c r="B51" s="61"/>
+      <c r="C51" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="64"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="8">
         <v>1</v>
       </c>
@@ -3437,12 +3381,12 @@
       <c r="I51" s="15"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="25.5">
-      <c r="B52" s="65"/>
-      <c r="C52" s="64" t="s">
+    <row r="52" spans="1:10" ht="26.4">
+      <c r="B52" s="61"/>
+      <c r="C52" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="64"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="8">
         <v>2</v>
       </c>
@@ -3461,13 +3405,13 @@
       <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="B53" s="84">
+      <c r="B53" s="80">
         <v>16</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="87"/>
+      <c r="D53" s="86"/>
       <c r="E53" s="16"/>
       <c r="F53" s="28" t="s">
         <v>95</v>
@@ -3484,11 +3428,11 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="B54" s="85"/>
-      <c r="C54" s="88" t="s">
+      <c r="B54" s="81"/>
+      <c r="C54" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="89"/>
+      <c r="D54" s="88"/>
       <c r="E54" s="16"/>
       <c r="F54" s="30" t="s">
         <v>96</v>
@@ -3504,11 +3448,11 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="35"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="88" t="s">
+      <c r="B55" s="81"/>
+      <c r="C55" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="90"/>
+      <c r="D55" s="89"/>
       <c r="E55" s="38"/>
       <c r="F55" s="30" t="s">
         <v>107</v>
@@ -3524,11 +3468,11 @@
     </row>
     <row r="56" spans="1:10" ht="24">
       <c r="A56" s="35"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="81" t="s">
+      <c r="B56" s="81"/>
+      <c r="C56" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="81"/>
+      <c r="D56" s="90"/>
       <c r="E56" s="31"/>
       <c r="F56" s="32" t="s">
         <v>99</v>
@@ -3544,11 +3488,11 @@
     </row>
     <row r="57" spans="1:10" ht="24">
       <c r="A57" s="35"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="81" t="s">
+      <c r="B57" s="81"/>
+      <c r="C57" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="81"/>
+      <c r="D57" s="90"/>
       <c r="E57" s="30"/>
       <c r="F57" s="32" t="s">
         <v>102</v>
@@ -3563,11 +3507,11 @@
       <c r="J57" s="37"/>
     </row>
     <row r="58" spans="1:10" ht="24">
-      <c r="B58" s="85"/>
-      <c r="C58" s="81" t="s">
+      <c r="B58" s="81"/>
+      <c r="C58" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="81"/>
+      <c r="D58" s="90"/>
       <c r="E58" s="8"/>
       <c r="F58" s="32" t="s">
         <v>103</v>
@@ -3582,13 +3526,13 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="65">
+      <c r="B59" s="61">
         <v>17</v>
       </c>
-      <c r="C59" s="82" t="s">
+      <c r="C59" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="83"/>
+      <c r="D59" s="92"/>
       <c r="E59" s="11"/>
       <c r="F59" s="28" t="s">
         <v>105</v>
@@ -3604,12 +3548,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="25.5">
-      <c r="B60" s="65"/>
-      <c r="C60" s="81" t="s">
+    <row r="60" spans="1:10" ht="26.4">
+      <c r="B60" s="61"/>
+      <c r="C60" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="D60" s="64"/>
+      <c r="D60" s="77"/>
       <c r="E60" s="8"/>
       <c r="F60" s="13" t="s">
         <v>106</v>
@@ -3624,13 +3568,13 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="65">
+      <c r="B61" s="61">
         <v>18</v>
       </c>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="79"/>
+      <c r="D61" s="93"/>
       <c r="E61" s="48"/>
       <c r="F61" s="49" t="s">
         <v>129</v>
@@ -3646,12 +3590,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="27">
-      <c r="B62" s="65"/>
-      <c r="C62" s="80" t="s">
+    <row r="62" spans="1:10" ht="28.8">
+      <c r="B62" s="61"/>
+      <c r="C62" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="80"/>
+      <c r="D62" s="78"/>
       <c r="E62" s="52">
         <v>1</v>
       </c>
@@ -3669,12 +3613,12 @@
       </c>
       <c r="J62" s="56"/>
     </row>
-    <row r="63" spans="1:10" ht="27">
-      <c r="B63" s="65"/>
-      <c r="C63" s="80" t="s">
+    <row r="63" spans="1:10" ht="28.8">
+      <c r="B63" s="61"/>
+      <c r="C63" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="D63" s="80"/>
+      <c r="D63" s="78"/>
       <c r="E63" s="52">
         <v>2</v>
       </c>
@@ -3692,12 +3636,12 @@
       </c>
       <c r="J63" s="56"/>
     </row>
-    <row r="64" spans="1:10" ht="27">
-      <c r="B64" s="65"/>
-      <c r="C64" s="80" t="s">
+    <row r="64" spans="1:10" ht="28.8">
+      <c r="B64" s="61"/>
+      <c r="C64" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="D64" s="80"/>
+      <c r="D64" s="78"/>
       <c r="E64" s="52">
         <v>3</v>
       </c>
@@ -3715,12 +3659,12 @@
       </c>
       <c r="J64" s="56"/>
     </row>
-    <row r="65" spans="2:10" ht="27">
-      <c r="B65" s="65"/>
-      <c r="C65" s="80" t="s">
+    <row r="65" spans="2:10" ht="28.8">
+      <c r="B65" s="61"/>
+      <c r="C65" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="D65" s="80"/>
+      <c r="D65" s="78"/>
       <c r="E65" s="52">
         <v>4</v>
       </c>
@@ -3738,12 +3682,12 @@
       </c>
       <c r="J65" s="56"/>
     </row>
-    <row r="66" spans="2:10" ht="27">
-      <c r="B66" s="65"/>
-      <c r="C66" s="80" t="s">
+    <row r="66" spans="2:10" ht="28.8">
+      <c r="B66" s="61"/>
+      <c r="C66" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="80"/>
+      <c r="D66" s="78"/>
       <c r="E66" s="57">
         <v>5</v>
       </c>
@@ -3761,12 +3705,12 @@
       </c>
       <c r="J66" s="56"/>
     </row>
-    <row r="67" spans="2:10" ht="27">
-      <c r="B67" s="65"/>
-      <c r="C67" s="80" t="s">
+    <row r="67" spans="2:10" ht="28.8">
+      <c r="B67" s="61"/>
+      <c r="C67" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="D67" s="80"/>
+      <c r="D67" s="78"/>
       <c r="E67" s="57">
         <v>6</v>
       </c>
@@ -3784,12 +3728,12 @@
       </c>
       <c r="J67" s="56"/>
     </row>
-    <row r="68" spans="2:10" ht="27">
-      <c r="B68" s="65"/>
-      <c r="C68" s="80" t="s">
+    <row r="68" spans="2:10" ht="28.8">
+      <c r="B68" s="61"/>
+      <c r="C68" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="D68" s="80"/>
+      <c r="D68" s="78"/>
       <c r="E68" s="57">
         <v>7</v>
       </c>
@@ -3808,13 +3752,13 @@
       <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="65">
+      <c r="B69" s="61">
         <v>19</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="79"/>
+      <c r="D69" s="93"/>
       <c r="E69" s="48"/>
       <c r="F69" s="49" t="s">
         <v>147</v>
@@ -3830,12 +3774,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="2:10" ht="27">
-      <c r="B70" s="65"/>
-      <c r="C70" s="80" t="s">
+    <row r="70" spans="2:10" ht="28.8">
+      <c r="B70" s="61"/>
+      <c r="C70" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="D70" s="80"/>
+      <c r="D70" s="78"/>
       <c r="E70" s="52">
         <v>1</v>
       </c>
@@ -3853,12 +3797,12 @@
       </c>
       <c r="J70" s="56"/>
     </row>
-    <row r="71" spans="2:10" ht="27">
-      <c r="B71" s="65"/>
-      <c r="C71" s="80" t="s">
+    <row r="71" spans="2:10" ht="28.8">
+      <c r="B71" s="61"/>
+      <c r="C71" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="80"/>
+      <c r="D71" s="78"/>
       <c r="E71" s="52">
         <v>2</v>
       </c>
@@ -3876,12 +3820,12 @@
       </c>
       <c r="J71" s="56"/>
     </row>
-    <row r="72" spans="2:10" ht="27">
-      <c r="B72" s="65"/>
-      <c r="C72" s="80" t="s">
+    <row r="72" spans="2:10" ht="28.8">
+      <c r="B72" s="61"/>
+      <c r="C72" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="80"/>
+      <c r="D72" s="78"/>
       <c r="E72" s="52">
         <v>3</v>
       </c>
@@ -3899,12 +3843,12 @@
       </c>
       <c r="J72" s="56"/>
     </row>
-    <row r="73" spans="2:10" ht="27">
-      <c r="B73" s="65"/>
-      <c r="C73" s="80" t="s">
+    <row r="73" spans="2:10" ht="28.8">
+      <c r="B73" s="61"/>
+      <c r="C73" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="D73" s="80"/>
+      <c r="D73" s="78"/>
       <c r="E73" s="52">
         <v>4</v>
       </c>
@@ -3922,12 +3866,12 @@
       </c>
       <c r="J73" s="56"/>
     </row>
-    <row r="74" spans="2:10" ht="27">
-      <c r="B74" s="65"/>
-      <c r="C74" s="80" t="s">
+    <row r="74" spans="2:10" ht="28.8">
+      <c r="B74" s="61"/>
+      <c r="C74" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="D74" s="80"/>
+      <c r="D74" s="78"/>
       <c r="E74" s="57">
         <v>5</v>
       </c>
@@ -3945,12 +3889,12 @@
       </c>
       <c r="J74" s="56"/>
     </row>
-    <row r="75" spans="2:10" ht="27">
-      <c r="B75" s="65"/>
-      <c r="C75" s="80" t="s">
+    <row r="75" spans="2:10" ht="28.8">
+      <c r="B75" s="61"/>
+      <c r="C75" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="D75" s="80"/>
+      <c r="D75" s="78"/>
       <c r="E75" s="57">
         <v>6</v>
       </c>
@@ -3968,12 +3912,12 @@
       </c>
       <c r="J75" s="56"/>
     </row>
-    <row r="76" spans="2:10" ht="27">
-      <c r="B76" s="65"/>
-      <c r="C76" s="80" t="s">
+    <row r="76" spans="2:10" ht="28.8">
+      <c r="B76" s="61"/>
+      <c r="C76" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="80"/>
+      <c r="D76" s="78"/>
       <c r="E76" s="57">
         <v>7</v>
       </c>
@@ -3992,13 +3936,13 @@
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="65">
+      <c r="B77" s="61">
         <v>20</v>
       </c>
-      <c r="C77" s="79" t="s">
+      <c r="C77" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D77" s="79"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="48"/>
       <c r="F77" s="49" t="s">
         <v>153</v>
@@ -4014,12 +3958,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="2:10" ht="27">
-      <c r="B78" s="65"/>
-      <c r="C78" s="80" t="s">
+    <row r="78" spans="2:10" ht="28.8">
+      <c r="B78" s="61"/>
+      <c r="C78" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="80"/>
+      <c r="D78" s="78"/>
       <c r="E78" s="52">
         <v>1</v>
       </c>
@@ -4037,12 +3981,12 @@
       </c>
       <c r="J78" s="56"/>
     </row>
-    <row r="79" spans="2:10" ht="27">
-      <c r="B79" s="65"/>
-      <c r="C79" s="80" t="s">
+    <row r="79" spans="2:10" ht="28.8">
+      <c r="B79" s="61"/>
+      <c r="C79" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="D79" s="80"/>
+      <c r="D79" s="78"/>
       <c r="E79" s="52">
         <v>2</v>
       </c>
@@ -4062,6 +4006,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
@@ -4078,84 +4100,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="C61:D61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4169,7 +4113,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
